--- a/service/templetes/grps_2grade_02semester.xlsx
+++ b/service/templetes/grps_2grade_02semester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wzscq\Documents\GitHub\shservice\service\templetes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBBC052-89A0-4A0C-AFF5-18B26CB6FE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7DA883-A762-46CF-AFD4-A495FDD6B5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="187">
   <si>
     <r>
       <rPr>
@@ -515,46 +515,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>学生姓名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>探究</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>道法</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>班主任</t>
-    </r>
-  </si>
-  <si>
     <t>期末考查</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1015,155 +975,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>（%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{math_teacher.name}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>老师）</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>%{math_comments}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>（%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{english_teacher.name}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>老师）</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>%{english_comments}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>（%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{pe_teacher.name}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>老师）</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>%{pe_comments}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>（%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{nature_teacher.name}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>老师）</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>%{nature_comments}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>美术
-（%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>{art_teacher.name}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>老师）</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1186,93 +1010,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>唱游
-（%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>{music_teacher.name}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>老师）</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>%{music_comments}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>（%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{explore_teacher.name}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>老师）</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>%{explore_comments}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>（%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{ethics_teacher.name}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>老师）</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1307,86 +1049,76 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>（%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{class_teacher.name}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>老师）</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>%{class_comments}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>上汇实验学校%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{year}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>学年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>%{semester.name}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>生成长报告</t>
-    </r>
+    <t>上汇实验学校%{year}学年%{semester.name}学生成长报告</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生姓名</t>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>（%{math_teacher.name}老师）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>（%{english_teacher.name}老师）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>（%{pe_teacher.name}老师）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>（%{nature_teacher.name}老师）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术
+（%{art_teacher.name}老师）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>唱游
+（%{music_teacher.name}老师）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>探究</t>
+  </si>
+  <si>
+    <t>（%{explore_teacher.name}老师）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>道法</t>
+  </si>
+  <si>
+    <t>（%{ethics_teacher.name}老师）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任</t>
+  </si>
+  <si>
+    <t>（%{class_teacher.name}老师）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1397,7 +1129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1467,16 +1199,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="΢���ź�"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1486,22 +1208,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="΢���ź�"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1515,7 +1221,7 @@
     </font>
     <font>
       <sz val="16"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -1654,7 +1360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1679,24 +1385,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1730,52 +1472,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2084,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FEDA38-791F-410D-9BCD-65131494E5AC}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2098,1293 +1798,1325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A2" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="3" t="s">
+    <row r="14" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="15" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="3" t="s">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="3" t="s">
+    <row r="24" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="3" t="s">
+    <row r="25" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="14" t="s">
+    <row r="26" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A25" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="D30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="3" t="s">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="3" t="s">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
     <row r="33" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="7" t="s">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="43" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A50" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12" t="s">
+    <row r="53" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A50" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="7" t="s">
+      <c r="D54" s="11"/>
+      <c r="E54" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
     <row r="55" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12" t="s">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12" t="s">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="12"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="27" t="s">
-        <v>59</v>
+      <c r="B63" s="11"/>
+      <c r="C63" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12" t="s">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
       <c r="D69" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A71" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12" t="s">
+    <row r="74" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="7" t="s">
+      <c r="D74" s="11"/>
+      <c r="E74" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13" t="s">
+    <row r="75" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A75" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="B75" s="19"/>
+      <c r="C75" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="11"/>
+      <c r="E75" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" s="3" t="s">
+    <row r="76" spans="1:5" ht="34.15" customHeight="1">
+      <c r="A76" s="13" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+    </row>
+    <row r="77" spans="1:5" ht="25.15" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1">
+      <c r="A78" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:5" ht="10.9" customHeight="1">
+      <c r="A79" s="38"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5" ht="10.9" customHeight="1">
+      <c r="A80" s="38"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+    </row>
+    <row r="81" spans="1:5" ht="18" customHeight="1">
+      <c r="A81" s="38"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+    </row>
+    <row r="82" spans="1:5" ht="73.150000000000006" customHeight="1">
+      <c r="A82" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="12"/>
-      <c r="E74" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="5" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A75" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="3" t="s">
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1">
+      <c r="A83" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="34.15" customHeight="1">
-      <c r="A76" s="39" t="s">
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84" spans="1:5" ht="10.9" customHeight="1">
+      <c r="A84" s="38"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+    </row>
+    <row r="85" spans="1:5" ht="10.9" customHeight="1">
+      <c r="A85" s="38"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="1:5" ht="18" customHeight="1">
+      <c r="A86" s="38"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" spans="1:5" ht="73.150000000000006" customHeight="1">
+      <c r="A87" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1">
+      <c r="A88" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-    </row>
-    <row r="77" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A77" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-    </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1">
-      <c r="A78" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="34" t="s">
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" ht="10.9" customHeight="1">
+      <c r="A89" s="38"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+    </row>
+    <row r="90" spans="1:5" ht="10.9" customHeight="1">
+      <c r="A90" s="38"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="1:5" ht="22.15" customHeight="1">
+      <c r="A91" s="38"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+    </row>
+    <row r="92" spans="1:5" ht="70.150000000000006" customHeight="1">
+      <c r="A92" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1">
+      <c r="A93" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+    </row>
+    <row r="94" spans="1:5" ht="10.9" customHeight="1">
+      <c r="A94" s="38"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+    </row>
+    <row r="95" spans="1:5" ht="10.9" customHeight="1">
+      <c r="A95" s="38"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" spans="1:5" ht="22.15" customHeight="1">
+      <c r="A96" s="38"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+    </row>
+    <row r="97" spans="1:5" ht="70.150000000000006" customHeight="1">
+      <c r="A97" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1">
+      <c r="A98" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-    </row>
-    <row r="79" spans="1:5" ht="10.9" customHeight="1">
-      <c r="A79" s="12"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-    </row>
-    <row r="80" spans="1:5" ht="10.9" customHeight="1">
-      <c r="A80" s="12"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-    </row>
-    <row r="81" spans="1:5" ht="18" customHeight="1">
-      <c r="A81" s="12"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-    </row>
-    <row r="82" spans="1:5" ht="73.150000000000006" customHeight="1">
-      <c r="A82" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-    </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1">
-      <c r="A83" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="34" t="s">
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+    </row>
+    <row r="99" spans="1:5" ht="10.9" customHeight="1">
+      <c r="A99" s="38"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+    </row>
+    <row r="100" spans="1:5" ht="10.9" customHeight="1">
+      <c r="A100" s="38"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+    </row>
+    <row r="101" spans="1:5" ht="22.15" customHeight="1">
+      <c r="A101" s="38"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+    </row>
+    <row r="102" spans="1:5" ht="70.150000000000006" customHeight="1">
+      <c r="A102" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="1:5" ht="130.15" customHeight="1">
+      <c r="A103" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="1:5" ht="130.15" customHeight="1">
+      <c r="A104" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-    </row>
-    <row r="84" spans="1:5" ht="10.9" customHeight="1">
-      <c r="A84" s="12"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-    </row>
-    <row r="85" spans="1:5" ht="10.9" customHeight="1">
-      <c r="A85" s="12"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-    </row>
-    <row r="86" spans="1:5" ht="18" customHeight="1">
-      <c r="A86" s="12"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-    </row>
-    <row r="87" spans="1:5" ht="73.150000000000006" customHeight="1">
-      <c r="A87" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-    </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1">
-      <c r="A88" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="34" t="s">
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1">
+      <c r="A105" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" ht="10.9" customHeight="1">
+      <c r="A106" s="38"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" ht="10.9" customHeight="1">
+      <c r="A107" s="38"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+    </row>
+    <row r="108" spans="1:5" ht="22.15" customHeight="1">
+      <c r="A108" s="38"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+    </row>
+    <row r="109" spans="1:5" ht="70.150000000000006" customHeight="1">
+      <c r="A109" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1">
+      <c r="A110" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-    </row>
-    <row r="89" spans="1:5" ht="10.9" customHeight="1">
-      <c r="A89" s="12"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-    </row>
-    <row r="90" spans="1:5" ht="10.9" customHeight="1">
-      <c r="A90" s="12"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-    </row>
-    <row r="91" spans="1:5" ht="22.15" customHeight="1">
-      <c r="A91" s="12"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-    </row>
-    <row r="92" spans="1:5" ht="70.150000000000006" customHeight="1">
-      <c r="A92" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-    </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1">
-      <c r="A93" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B93" s="34" t="s">
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+    </row>
+    <row r="111" spans="1:5" ht="10.9" customHeight="1">
+      <c r="A111" s="38"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+    </row>
+    <row r="112" spans="1:5" ht="28.9" customHeight="1">
+      <c r="A112" s="38"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+    </row>
+    <row r="113" spans="1:5" ht="73.150000000000006" customHeight="1">
+      <c r="A113" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+    </row>
+    <row r="114" spans="1:5" s="5" customFormat="1" ht="73.150000000000006" customHeight="1">
+      <c r="A114" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-    </row>
-    <row r="94" spans="1:5" ht="10.9" customHeight="1">
-      <c r="A94" s="12"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-    </row>
-    <row r="95" spans="1:5" ht="10.9" customHeight="1">
-      <c r="A95" s="12"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-    </row>
-    <row r="96" spans="1:5" ht="22.15" customHeight="1">
-      <c r="A96" s="12"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-    </row>
-    <row r="97" spans="1:5" ht="70.150000000000006" customHeight="1">
-      <c r="A97" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-    </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1">
-      <c r="A98" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B98" s="34" t="s">
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+    </row>
+    <row r="115" spans="1:5" s="5" customFormat="1" ht="73.150000000000006" customHeight="1">
+      <c r="A115" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-    </row>
-    <row r="99" spans="1:5" ht="10.9" customHeight="1">
-      <c r="A99" s="12"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
-    </row>
-    <row r="100" spans="1:5" ht="10.9" customHeight="1">
-      <c r="A100" s="12"/>
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-    </row>
-    <row r="101" spans="1:5" ht="22.15" customHeight="1">
-      <c r="A101" s="12"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
-    </row>
-    <row r="102" spans="1:5" ht="70.150000000000006" customHeight="1">
-      <c r="A102" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
-    </row>
-    <row r="103" spans="1:5" ht="130.15" customHeight="1">
-      <c r="A103" s="11" t="s">
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="1:5" s="5" customFormat="1" ht="73.150000000000006" customHeight="1">
+      <c r="A116" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B116" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-    </row>
-    <row r="104" spans="1:5" ht="130.15" customHeight="1">
-      <c r="A104" s="11" t="s">
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="1:5" ht="13.15" customHeight="1">
+      <c r="A117" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B104" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-    </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1">
-      <c r="A105" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B105" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-    </row>
-    <row r="106" spans="1:5" ht="10.9" customHeight="1">
-      <c r="A106" s="12"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-    </row>
-    <row r="107" spans="1:5" ht="10.9" customHeight="1">
-      <c r="A107" s="12"/>
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-    </row>
-    <row r="108" spans="1:5" ht="22.15" customHeight="1">
-      <c r="A108" s="12"/>
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-    </row>
-    <row r="109" spans="1:5" ht="70.150000000000006" customHeight="1">
-      <c r="A109" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-    </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1">
-      <c r="A110" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B110" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-    </row>
-    <row r="111" spans="1:5" ht="10.9" customHeight="1">
-      <c r="A111" s="12"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-    </row>
-    <row r="112" spans="1:5" ht="28.9" customHeight="1">
-      <c r="A112" s="12"/>
-      <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-    </row>
-    <row r="113" spans="1:5" ht="73.150000000000006" customHeight="1">
-      <c r="A113" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B113" s="34"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-    </row>
-    <row r="114" spans="1:5" s="5" customFormat="1" ht="73.150000000000006" customHeight="1">
-      <c r="A114" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B114" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C114" s="36"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
-    </row>
-    <row r="115" spans="1:5" s="5" customFormat="1" ht="73.150000000000006" customHeight="1">
-      <c r="A115" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B115" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="36"/>
-    </row>
-    <row r="116" spans="1:5" s="5" customFormat="1" ht="73.150000000000006" customHeight="1">
-      <c r="A116" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B116" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-    </row>
-    <row r="117" spans="1:5" ht="13.15" customHeight="1">
-      <c r="A117" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B117" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="12"/>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
+      <c r="A118" s="38"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="12"/>
-      <c r="B119" s="34"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="12"/>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
+      <c r="A120" s="38"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
     </row>
     <row r="121" spans="1:5" ht="94.9" customHeight="1">
-      <c r="A121" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B121" s="34"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
+      <c r="A121" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:E121"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:E82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="B83:E87"/>
+    <mergeCell ref="A15:B24"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A25:B32"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:B14"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A33:B42"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="A43:B49"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A50:B54"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A71:B74"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="A55:B62"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A63:B70"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="A110:A112"/>
     <mergeCell ref="B110:E113"/>
     <mergeCell ref="A88:A91"/>
@@ -3397,49 +3129,17 @@
     <mergeCell ref="B104:E104"/>
     <mergeCell ref="A105:A108"/>
     <mergeCell ref="B105:E109"/>
-    <mergeCell ref="A55:B62"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A63:B70"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A71:B74"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="A50:B54"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A33:B42"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="A43:B49"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:B14"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A15:B24"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A25:B32"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:E82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="B83:E87"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:E121"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
